--- a/data/claim_view_analysis.xlsx
+++ b/data/claim_view_analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bayeg\OneDrive\Desktop\Job Applications\Clipboard Health\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bayeg\OneDrive\Desktop\Job Applications\Clipboard Health\CBH_dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{942EF44E-83DE-495F-9F91-A66A88D49800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A3F181-67E9-4854-B30A-5EC37AAEBCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{1C2945EA-B7E9-498E-9666-87E9BF100F2D}"/>
   </bookViews>
@@ -907,7 +907,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
